--- a/Business/HopIPACE/BienBanHop_20180831.xlsx
+++ b/Business/HopIPACE/BienBanHop_20180831.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\HopIPACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF740953-2FE5-43DA-B242-26ACE95815CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B978795-0D7B-4CB6-920C-FA6DB6B6968D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8FDEA46A-9E57-462D-BC42-DA329F8FAE23}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8FDEA46A-9E57-462D-BC42-DA329F8FAE23}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{9C59848A-5146-402F-A71D-654D0735F47A}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{9C59848A-5146-402F-A71D-654D0735F47A}">
       <text>
         <r>
           <rPr>
@@ -641,7 +641,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="194">
   <si>
     <t>Luật sư</t>
   </si>
@@ -917,9 +917,6 @@
   </si>
   <si>
     <t>wiki</t>
-  </si>
-  <si>
-    <t>vị trí</t>
   </si>
   <si>
     <t>đơn</t>
@@ -1708,7 +1705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1809,145 +1806,157 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="37" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,12 +1969,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1975,15 +1978,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -2402,7 +2398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:L36"/>
     </sheetView>
   </sheetViews>
@@ -2423,538 +2419,538 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="B3" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+        <v>147</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="A5" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+        <v>169</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+        <v>146</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+        <v>148</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+        <v>149</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+        <v>145</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+        <v>150</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+        <v>151</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
+        <v>152</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
+        <v>153</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
+        <v>154</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
+        <v>155</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+        <v>156</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
+        <v>157</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
+        <v>158</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
+        <v>159</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
+        <v>160</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
+        <v>162</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
+        <v>161</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
+        <v>163</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
+        <v>164</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
+        <v>106</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
+        <v>165</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
+        <v>166</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
+        <v>167</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2976,336 +2972,312 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="61"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>94</v>
-      </c>
+      <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="61"/>
-      <c r="C6" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>97</v>
-      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>98</v>
-      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="C8" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>144</v>
-      </c>
+      <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>3</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="C12" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="62"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="C13" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="62"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="C14" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>4</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="25" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="25" t="s">
         <v>5</v>
       </c>
+      <c r="D17" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="E17" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="C18" s="29" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
+      <c r="B18" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>100</v>
-      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
-      <c r="C19" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>104</v>
-      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
+      <c r="B19" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="50" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60">
-        <v>5</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="59"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>106</v>
-      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="32">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
         <v>1</v>
       </c>
-      <c r="D25" s="32">
+      <c r="C25" s="32">
         <v>1</v>
       </c>
-      <c r="G25" s="32">
+      <c r="F25" s="32">
         <v>1</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="32">
+      <c r="G25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
         <v>2</v>
       </c>
-      <c r="D26" s="32">
+      <c r="C26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="32">
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="32">
+      <c r="G26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
         <v>3</v>
       </c>
-      <c r="D27" s="32">
+      <c r="C27" s="32">
         <v>3</v>
       </c>
-      <c r="G27" s="32">
+      <c r="F27" s="32">
         <v>3</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B22:B23"/>
+  <mergeCells count="6">
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3366,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="63"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="18" t="s">
         <v>3</v>
       </c>
@@ -3387,113 +3359,113 @@
     </row>
     <row r="9" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="C10" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="C11" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="65"/>
+      <c r="A22" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="73"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -3504,11 +3476,11 @@
       <c r="F22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
@@ -3521,11 +3493,11 @@
       <c r="F23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
@@ -3538,11 +3510,11 @@
       <c r="F24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
@@ -3555,11 +3527,11 @@
       <c r="F25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -3572,11 +3544,11 @@
       <c r="F26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
@@ -3589,6 +3561,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G24:I24"/>
@@ -3596,8 +3570,6 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="C11:I20"/>
     <mergeCell ref="C10:I10"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3654,10 +3626,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="63"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="18" t="s">
         <v>3</v>
       </c>
@@ -3675,125 +3647,125 @@
     </row>
     <row r="8" spans="3:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+    </row>
+    <row r="10" spans="3:9" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+    </row>
+    <row r="11" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-    </row>
-    <row r="10" spans="3:9" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-    </row>
-    <row r="11" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -3804,10 +3776,10 @@
       <c r="F23" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="65"/>
+      <c r="A25" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="73"/>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
@@ -3818,11 +3790,11 @@
       <c r="F25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -3835,11 +3807,11 @@
       <c r="F26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
@@ -3852,11 +3824,11 @@
       <c r="F27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
@@ -3869,11 +3841,11 @@
       <c r="F28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="67" t="s">
+      <c r="G28" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
@@ -3886,11 +3858,11 @@
       <c r="F29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="67" t="s">
+      <c r="G29" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3904,10 +3876,10 @@
       <c r="J30" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="7" t="s">
         <v>34</v>
       </c>
@@ -3920,11 +3892,11 @@
       <c r="F32" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="72"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33" s="9"/>
@@ -3990,27 +3962,27 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="79"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="46" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>140</v>
-      </c>
       <c r="H37" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I37" s="48"/>
     </row>
@@ -4035,7 +4007,7 @@
         <v>1700</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I38" s="9"/>
     </row>
@@ -4103,10 +4075,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="11" t="s">
         <v>72</v>
       </c>
@@ -4119,10 +4091,10 @@
       <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="7" t="s">
         <v>50</v>
       </c>
@@ -4187,7 +4159,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4200,7 +4172,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9">
@@ -4217,7 +4189,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4264,85 +4236,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
+        <v>116</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
+        <v>121</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
+        <v>119</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
@@ -4353,57 +4325,57 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
+      <c r="C15" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="E17" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="F17" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="41">
         <v>1200</v>
@@ -4494,18 +4466,18 @@
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="D24" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="E24" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="88"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -4553,23 +4525,23 @@
       <c r="B31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
+      <c r="C31" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
+      <c r="C32" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4612,188 +4584,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
-        <v>171</v>
+      <c r="A1" s="53" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="K5" s="104" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="K5" s="100" t="s">
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+    </row>
+    <row r="6" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-    </row>
-    <row r="6" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104" t="s">
+      <c r="L6" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="M6" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="M6" s="105" t="s">
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="107" t="s">
+      <c r="S6" s="109"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="K8" t="s">
         <v>179</v>
-      </c>
-      <c r="S6" s="107"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="K8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109" t="s">
+      <c r="E17" s="102"/>
+      <c r="F17" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="102"/>
+      <c r="H17" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="56" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="K5:S5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:S6"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="K5:S5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Business/HopIPACE/BienBanHop_20180831.xlsx
+++ b/Business/HopIPACE/BienBanHop_20180831.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\HopIPACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B978795-0D7B-4CB6-920C-FA6DB6B6968D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1172401-3A17-45BB-9F6E-F6F10BD85B36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -1819,6 +1819,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1828,51 +1830,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1954,32 +1956,30 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -2419,538 +2419,538 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2974,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -3006,9 +3006,9 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
@@ -3203,19 +3203,19 @@
       <c r="A22" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
@@ -3272,12 +3272,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="C22:F23"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3338,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="71"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="18" t="s">
         <v>3</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="I10" s="66"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="76" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="65"/>
@@ -3462,10 +3462,10 @@
       <c r="I20" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="73"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -3476,11 +3476,11 @@
       <c r="F22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
@@ -3493,11 +3493,11 @@
       <c r="F23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
@@ -3510,11 +3510,11 @@
       <c r="F24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
@@ -3527,11 +3527,11 @@
       <c r="F25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -3544,11 +3544,11 @@
       <c r="F26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
@@ -3561,15 +3561,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C11:I20"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C11:I20"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3626,10 +3626,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="71"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="18" t="s">
         <v>3</v>
       </c>
@@ -3647,27 +3647,27 @@
     </row>
     <row r="8" spans="3:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="3:9" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="76" t="s">
         <v>110</v>
       </c>
       <c r="D11" s="65"/>
@@ -3776,10 +3776,10 @@
       <c r="F23" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="73"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
@@ -3790,11 +3790,11 @@
       <c r="F25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -3807,11 +3807,11 @@
       <c r="F26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
@@ -3824,11 +3824,11 @@
       <c r="F27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
@@ -3841,11 +3841,11 @@
       <c r="F28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
@@ -3858,11 +3858,11 @@
       <c r="F29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3876,10 +3876,10 @@
       <c r="J30" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="7" t="s">
         <v>34</v>
       </c>
@@ -3892,11 +3892,11 @@
       <c r="F32" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="75" t="s">
+      <c r="G32" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33" s="9"/>
@@ -3962,10 +3962,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="46" t="s">
         <v>53</v>
       </c>
@@ -4075,10 +4075,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="11" t="s">
         <v>72</v>
       </c>
@@ -4091,10 +4091,10 @@
       <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="74"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="7" t="s">
         <v>50</v>
       </c>
@@ -4224,7 +4224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:F11"/>
     </sheetView>
   </sheetViews>
@@ -4236,85 +4236,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
@@ -4327,34 +4327,34 @@
       <c r="B13" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="43" t="s">
@@ -4474,10 +4474,10 @@
       <c r="D24" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="88"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -4525,23 +4525,23 @@
       <c r="B31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4599,41 +4599,41 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="K5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="K5" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
     </row>
     <row r="6" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="54"/>
       <c r="K6" s="55" t="s">
         <v>175</v>
@@ -4641,30 +4641,30 @@
       <c r="L6" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="M6" s="107" t="s">
+      <c r="M6" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="109" t="s">
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="S6" s="109"/>
+      <c r="S6" s="110"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
       <c r="K8" t="s">
         <v>179</v>
       </c>
@@ -4691,60 +4691,60 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102" t="s">
+      <c r="C17" s="111"/>
+      <c r="D17" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102" t="s">
+      <c r="E17" s="111"/>
+      <c r="F17" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="102"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="56" t="s">
         <v>186</v>
       </c>
@@ -4754,18 +4754,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="K5:S5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="M6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Business/HopIPACE/BienBanHop_20180831.xlsx
+++ b/Business/HopIPACE/BienBanHop_20180831.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\HopIPACE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1172401-3A17-45BB-9F6E-F6F10BD85B36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="24240" windowHeight="13740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <sheet name="Billing Request" sheetId="5" r:id="rId6"/>
     <sheet name="Search" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{11D76716-922B-4C06-87A9-A54595A4E37D}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{0B4DE8FC-B85A-4415-9125-1E5271A68B06}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{371C6C01-E1FD-467F-9119-3908342988DC}">
+    <comment ref="A12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{5D91C254-D78A-4C45-8454-1BD84A0A887F}">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{F7F88D46-9A22-44D9-BBB8-9DB73B1EB4C6}">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{7D4D5BBA-4986-4626-BA82-5DFCABB18782}">
+    <comment ref="A33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,12 +179,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8FDEA46A-9E57-462D-BC42-DA329F8FAE23}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{9C59848A-5146-402F-A71D-654D0735F47A}">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,12 +240,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{3E73B584-0DF2-42E4-891E-FBE5F8DD4780}">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{716A369F-832B-42B9-B6C8-523113D29CE8}">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,13 +302,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
     <author>Le Tuyen</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{A3E78FB5-CECB-4999-84F2-EA3FE693EFA2}">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{4492FE7E-B37B-44E1-BFD2-D2C07A4C3D2C}">
+    <comment ref="A25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="1" shapeId="0" xr:uid="{B64334BC-3EF6-4FAA-A762-C85DA8290A57}">
+    <comment ref="C38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -385,13 +379,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
     <author>Le Tuyen</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{2E37460D-13E7-439B-883A-9B3D45F00653}">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -429,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -443,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{325F8652-34B4-44DC-8DDA-284D9727F1E5}">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="E19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -481,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{04E0D27E-8815-43F7-8395-DAD3C4CDFD80}">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{F47310EC-AF75-40E5-837D-34BFDA818202}">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{162C62C9-5027-4A80-B817-E4B20FA3F2CD}">
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -558,12 +552,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tác giả</author>
   </authors>
   <commentList>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{DA349ACF-F61C-495A-99F8-321B79EF6F9E}">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{47D98EEC-62EB-48A6-82FE-C1D457E1781E}">
+    <comment ref="R6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{C071193F-AC3A-44BC-850D-0BE2A3D38324}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1827,6 +1821,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,12 +1839,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1863,18 +1869,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1956,6 +1950,9 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1977,50 +1974,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="39">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy" xfId="38" builtinId="3"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="37" builtinId="8"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Comma" xfId="38" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2055,7 +2049,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B07715-9B4D-4304-BC8F-608538D61374}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05B07715-9B4D-4304-BC8F-608538D61374}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2098,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,14 +2382,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
@@ -2957,7 +2951,7 @@
     <mergeCell ref="B3:L36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A5" location="'2a - Đơn trước nộp đơn'!A1" display="           Đơn 2a" xr:uid="{0547CFC3-B372-4C59-B24A-9AB4BE9CBD8B}"/>
+    <hyperlink ref="A5" location="'2a - Đơn trước nộp đơn'!A1" display="           Đơn 2a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2971,11 +2965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,7 +3009,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="61" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="22"/>
@@ -3034,7 +3028,7 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="29" t="s">
         <v>92</v>
       </c>
@@ -3046,7 +3040,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="29" t="s">
         <v>94</v>
       </c>
@@ -3058,7 +3052,7 @@
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="29" t="s">
         <v>95</v>
       </c>
@@ -3070,7 +3064,7 @@
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="29" t="s">
         <v>142</v>
       </c>
@@ -3146,7 +3140,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="28"/>
@@ -3164,7 +3158,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="29" t="s">
         <v>98</v>
       </c>
@@ -3176,7 +3170,7 @@
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="29" t="s">
         <v>92</v>
       </c>
@@ -3188,34 +3182,34 @@
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="A23" s="66"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
@@ -3291,10 +3285,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516F7620-657B-45E2-B786-C3A1F3BB36E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -3338,10 +3332,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="18" t="s">
         <v>3</v>
       </c>
@@ -3359,113 +3353,113 @@
     </row>
     <row r="9" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
@@ -3476,11 +3470,11 @@
       <c r="F22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
@@ -3493,11 +3487,11 @@
       <c r="F23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
@@ -3510,11 +3504,11 @@
       <c r="F24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
@@ -3527,11 +3521,11 @@
       <c r="F25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -3544,11 +3538,11 @@
       <c r="F26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
@@ -3561,15 +3555,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="C11:I20"/>
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3578,10 +3572,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -3626,10 +3620,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="18" t="s">
         <v>3</v>
       </c>
@@ -3667,105 +3661,105 @@
       <c r="I10" s="85"/>
     </row>
     <row r="11" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -3776,10 +3770,10 @@
       <c r="F23" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
@@ -3790,11 +3784,11 @@
       <c r="F25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -3807,11 +3801,11 @@
       <c r="F26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
@@ -3824,11 +3818,11 @@
       <c r="F27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
@@ -3841,11 +3835,11 @@
       <c r="F28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
@@ -3858,11 +3852,11 @@
       <c r="F29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="72"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4039,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -4075,10 +4069,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="11" t="s">
         <v>72</v>
       </c>
@@ -4091,10 +4085,10 @@
       <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="7" t="s">
         <v>50</v>
       </c>
@@ -4221,11 +4215,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F11"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4327,34 +4321,34 @@
       <c r="B13" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="43" t="s">
@@ -4525,23 +4519,23 @@
       <c r="B31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="76"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4567,11 +4561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5124E659-8AE0-4E68-94E5-E84B98F0FEB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4599,41 +4593,41 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="K5" s="105" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="K5" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-    </row>
-    <row r="6" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+    </row>
+    <row r="6" spans="1:19" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="54"/>
       <c r="K6" s="55" t="s">
         <v>175</v>
@@ -4641,17 +4635,17 @@
       <c r="L6" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="M6" s="108" t="s">
+      <c r="M6" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
       <c r="Q6" s="90"/>
-      <c r="R6" s="110" t="s">
+      <c r="R6" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="S6" s="110"/>
+      <c r="S6" s="111"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
@@ -4704,47 +4698,47 @@
       <c r="I14" s="103"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111" t="s">
+      <c r="C17" s="104"/>
+      <c r="D17" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111" t="s">
+      <c r="E17" s="104"/>
+      <c r="F17" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="111"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="56" t="s">
         <v>186</v>
       </c>
@@ -4754,18 +4748,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="K5:S5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:S6"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="K5:S5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
